--- a/LyndaTestAutomationFramework/LyndaTestAutomationFramework/Tests/General/Tests/BVT5/TestData/Public_AcctAccessData.xlsx
+++ b/LyndaTestAutomationFramework/LyndaTestAutomationFramework/Tests/General/Tests/BVT5/TestData/Public_AcctAccessData.xlsx
@@ -48,7 +48,7 @@
     <t>4-12-2012-37321</t>
   </si>
   <si>
-    <t>5-21-2012-30179</t>
+    <t>5-22-2012-59017</t>
   </si>
 </sst>
 </file>

--- a/LyndaTestAutomationFramework/LyndaTestAutomationFramework/Tests/General/Tests/BVT5/TestData/Public_AcctAccessData.xlsx
+++ b/LyndaTestAutomationFramework/LyndaTestAutomationFramework/Tests/General/Tests/BVT5/TestData/Public_AcctAccessData.xlsx
@@ -48,7 +48,7 @@
     <t>4-12-2012-37321</t>
   </si>
   <si>
-    <t>5-22-2012-59017</t>
+    <t>5-23-2012-54835</t>
   </si>
 </sst>
 </file>
